--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83627.74912255973</v>
+        <v>85682.95505316873</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20002932.62808473</v>
+        <v>20060381.09850433</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10509092.07651444</v>
+        <v>10565397.32237267</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5265382.689581495</v>
+        <v>5223196.924858419</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>341.7663037623996</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>154.2993102812751</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>78.86456387371699</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>65.76953573495733</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2269272766099</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>128.6552774352947</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>84.43156765810356</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>154.5449846173701</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>226.5737287631724</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>143.4324547506685</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
         <v>140.4611363452985</v>
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,10 +1341,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>13.55521676392294</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.402899104849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>124.0950237970986</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>279.9952385426311</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.70084754781689</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>65.76953573495733</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>199.5133519370713</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>147.0044828306516</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>164.540418312084</v>
+        <v>65.76953573495733</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>252.8252773014387</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3063086991904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>76.44241985252278</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>222.0302831758133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>320.6279270300467</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>247.2829229608519</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>139.4851730221162</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>24.43802729683349</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2321,22 +2323,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>111.5422858787866</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>381.203815484316</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.98727664058468</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>190.4320285411033</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9047444915414</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>170.2269272766098</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2719,13 +2721,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>246.6043431343121</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.67279124319197</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>180.9438682923293</v>
       </c>
       <c r="F29" t="n">
-        <v>378.0798822782845</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>31.52918765859654</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3007,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>38.00305039521665</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>370.5703066376465</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>262.5320931650596</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.66266823451896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>34.79484432979901</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3266,10 +3268,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>178.5899797267377</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>131.975558987749</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.66266823451896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>34.79484432979901</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>168.4872244470118</v>
+        <v>144.3470069838803</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3670,7 +3672,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>30.9555473324528</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>233.5171718185217</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.0959123035665</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>109.7290404931425</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>11.36742273174581</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>120.1668951866473</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>165.7685056510554</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>195.9770992037377</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4059,19 +4061,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>53.96935938374367</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
         <v>140.4611363452985</v>
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>108.1524879491905</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>679.9988596356804</v>
+        <v>1043.871003296574</v>
       </c>
       <c r="C2" t="n">
-        <v>679.9988596356804</v>
+        <v>1043.871003296574</v>
       </c>
       <c r="D2" t="n">
-        <v>679.9988596356804</v>
+        <v>1043.871003296574</v>
       </c>
       <c r="E2" t="n">
-        <v>679.9988596356804</v>
+        <v>617.8940634444317</v>
       </c>
       <c r="F2" t="n">
-        <v>334.7803709867919</v>
+        <v>192.7698816338319</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
         <v>36.91199246082674</v>
@@ -4328,25 +4330,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M2" t="n">
-        <v>475.942330131692</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N2" t="n">
-        <v>932.7282368344229</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
         <v>1845.599623041337</v>
@@ -4364,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X2" t="n">
-        <v>679.9988596356804</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="Y2" t="n">
-        <v>679.9988596356804</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L3" t="n">
-        <v>316.0561247023297</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>316.0561247023297</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331441</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>870.229311894705</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C4" t="n">
-        <v>698.256748773621</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D4" t="n">
-        <v>698.256748773621</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E4" t="n">
         <v>618.5955731436038</v>
@@ -4513,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V4" t="n">
-        <v>870.229311894705</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W4" t="n">
-        <v>870.229311894705</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X4" t="n">
-        <v>870.229311894705</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y4" t="n">
-        <v>870.229311894705</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460.2046132758265</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G5" t="n">
         <v>36.91199246082674</v>
@@ -4565,19 +4567,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>357.6855680512415</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
         <v>814.4714747539724</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O5" t="n">
         <v>1728.043288159434</v>
@@ -4604,13 +4606,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1449.208273341684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1037.488274509431</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>632.1510044643213</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H6" t="n">
         <v>36.91199246082674</v>
@@ -4644,28 +4646,28 @@
         <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>475.2419029331441</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="L6" t="n">
-        <v>475.2419029331441</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
-        <v>932.027809635875</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.20132845514</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="C7" t="n">
-        <v>200.228765334056</v>
+        <v>789.8401268882722</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>626.5233540150429</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>460.3151481678964</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.4533739424568</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>122.1964042366889</v>
       </c>
       <c r="H7" t="n">
         <v>36.91199246082674</v>
@@ -4735,13 +4737,13 @@
         <v>712.1167168610727</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1089.608227737109</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1445.036356416872</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1735.635568338772</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4753,22 +4755,22 @@
         <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.037213454714</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V7" t="n">
-        <v>993.3257460627433</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W7" t="n">
-        <v>718.4733422352563</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="X7" t="n">
-        <v>562.3672971672056</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.3672971672056</v>
+        <v>961.8126900093562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1291.444405673078</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C8" t="n">
-        <v>864.5436756863778</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D8" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E8" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
         <v>36.91199246082674</v>
@@ -4802,52 +4804,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>475.2419029331441</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="M8" t="n">
-        <v>475.2419029331441</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N8" t="n">
-        <v>932.027809635875</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1291.444405673078</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1291.444405673078</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.444405673078</v>
+        <v>1700.718355616419</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.444405673078</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.444405673078</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484409</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484409</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511718</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253903</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O9" t="n">
-        <v>1763.580312956634</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.6805607205508</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="C10" t="n">
-        <v>136.6805607205508</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>136.6805607205508</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
         <v>136.6805607205508</v>
@@ -4963,22 +4965,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1742.234349487134</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4987,25 +4989,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>1784.868871583133</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1784.868871583133</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1504.684423083438</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1222.972955691466</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.6805607205508</v>
+        <v>948.1205518639796</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1440.262352996227</v>
+        <v>1204.82568779444</v>
       </c>
       <c r="C11" t="n">
-        <v>1013.361623009527</v>
+        <v>777.9249578077402</v>
       </c>
       <c r="D11" t="n">
-        <v>888.013114123569</v>
+        <v>354.6323369927404</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0361742714265</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I11" t="n">
         <v>36.91199246082674</v>
@@ -5042,25 +5044,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>856.3013579804531</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M11" t="n">
-        <v>856.3013579804531</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N11" t="n">
-        <v>1313.087264683184</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5069,22 +5071,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.262352996227</v>
+        <v>1624.67405208597</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L12" t="n">
-        <v>475.2419029331439</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358747</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="N12" t="n">
+        <v>932.027809635875</v>
+      </c>
+      <c r="O12" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="P12" t="n">
         <v>1845.599623041337</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1020.32454672534</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C13" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N13" t="n">
-        <v>1160.278619601534</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O13" t="n">
-        <v>1515.706748281297</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5236,13 +5238,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>608.6939898724443</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C14" t="n">
-        <v>608.6939898724443</v>
+        <v>1644.070984721063</v>
       </c>
       <c r="D14" t="n">
-        <v>185.4013690574445</v>
+        <v>1220.778363906063</v>
       </c>
       <c r="E14" t="n">
-        <v>185.4013690574445</v>
+        <v>794.8014240539205</v>
       </c>
       <c r="F14" t="n">
-        <v>185.4013690574445</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I14" t="n">
         <v>36.91199246082674</v>
@@ -5285,10 +5287,10 @@
         <v>493.6978991635576</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662885</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N14" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O14" t="n">
         <v>1271.957808655251</v>
@@ -5318,10 +5320,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1028.542354163974</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C15" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082694</v>
       </c>
       <c r="I15" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J15" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K15" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331439</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358747</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N15" t="n">
-        <v>1388.813716338606</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P15" t="n">
         <v>1845.599623041337</v>
@@ -5385,7 +5387,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U15" t="n">
         <v>1437.627243819906</v>
@@ -5394,13 +5396,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.32454672534</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C16" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D16" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I16" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P16" t="n">
         <v>1845.599623041337</v>
@@ -5473,13 +5475,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.397180301858</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X16" t="n">
-        <v>1436.833283747663</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.490515437405</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1294.12872471022</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C17" t="n">
-        <v>867.2279947235206</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="D17" t="n">
-        <v>867.2279947235206</v>
+        <v>1590.220555060086</v>
       </c>
       <c r="E17" t="n">
-        <v>441.2510548713781</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F17" t="n">
-        <v>441.2510548713781</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
         <v>36.91199246082674</v>
@@ -5519,19 +5521,19 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="M17" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="N17" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="O17" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="M17" t="n">
-        <v>1313.087264683184</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1728.043288159434</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1728.043288159434</v>
-      </c>
       <c r="P17" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
         <v>1728.043288159434</v>
@@ -5558,7 +5560,7 @@
         <v>1845.599623041337</v>
       </c>
       <c r="Y17" t="n">
-        <v>1713.977089001751</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J18" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K18" t="n">
-        <v>393.2225928484409</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L18" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N18" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O18" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P18" t="n">
         <v>1306.794406253903</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>541.2389422391807</v>
+        <v>596.152359287123</v>
       </c>
       <c r="C19" t="n">
-        <v>541.2389422391807</v>
+        <v>424.179796166039</v>
       </c>
       <c r="D19" t="n">
-        <v>541.2389422391807</v>
+        <v>424.179796166039</v>
       </c>
       <c r="E19" t="n">
-        <v>375.0307363920342</v>
+        <v>424.179796166039</v>
       </c>
       <c r="F19" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H19" t="n">
         <v>36.91199246082674</v>
@@ -5671,25 +5673,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L19" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M19" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.075826767541</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.36435937557</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="W19" t="n">
-        <v>765.5119555480831</v>
+        <v>838.7162558413179</v>
       </c>
       <c r="X19" t="n">
-        <v>541.2389422391807</v>
+        <v>596.152359287123</v>
       </c>
       <c r="Y19" t="n">
-        <v>541.2389422391807</v>
+        <v>596.152359287123</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1442.340684640399</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="C20" t="n">
-        <v>1015.439954653699</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="D20" t="n">
-        <v>592.1473338386995</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="E20" t="n">
-        <v>592.1473338386995</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F20" t="n">
-        <v>592.1473338386995</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3666035752127</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L20" t="n">
-        <v>549.9383681074144</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>549.9383681074144</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N20" t="n">
-        <v>1100.603903091853</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O20" t="n">
-        <v>1651.269438076291</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.269438076291</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2120.543958335517</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2120.543958335517</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>1862.189048931929</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1862.189048931929</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W20" t="n">
-        <v>1862.189048931929</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X20" t="n">
-        <v>1862.189048931929</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="Y20" t="n">
-        <v>1862.189048931929</v>
+        <v>1488.110208167586</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>201.1892506764427</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L21" t="n">
-        <v>751.8547856608809</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M21" t="n">
-        <v>751.8547856608809</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N21" t="n">
-        <v>751.8547856608809</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.520320645319</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.43685720741</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.43685720741</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V22" t="n">
-        <v>1811.43685720741</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>804.1642048184415</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C23" t="n">
-        <v>377.2634748317415</v>
+        <v>998.8505287631069</v>
       </c>
       <c r="D23" t="n">
-        <v>377.2634748317415</v>
+        <v>575.5579079481072</v>
       </c>
       <c r="E23" t="n">
-        <v>377.2634748317415</v>
+        <v>149.5809680959647</v>
       </c>
       <c r="F23" t="n">
-        <v>377.2634748317415</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G23" t="n">
-        <v>377.2634748317415</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577632</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
-        <v>407.101683866143</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>957.7672188505812</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>957.7672188505812</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M23" t="n">
-        <v>1006.023847611597</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N23" t="n">
-        <v>1556.689382596036</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580474</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U23" t="n">
-        <v>1966.556343058789</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V23" t="n">
-        <v>1609.066928185038</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>1224.012569109972</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X23" t="n">
-        <v>1224.012569109972</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y23" t="n">
-        <v>1224.012569109972</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I24" t="n">
-        <v>51.94486801115937</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J24" t="n">
-        <v>323.6423572907505</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K24" t="n">
-        <v>323.6423572907505</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="L24" t="n">
-        <v>323.6423572907505</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6423572907505</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="N24" t="n">
-        <v>323.6423572907505</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="O24" t="n">
-        <v>874.3078922751886</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P24" t="n">
-        <v>1389.040378766978</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>713.2115053602647</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>2177.872639149549</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U25" t="n">
-        <v>1897.688190649853</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V25" t="n">
-        <v>1897.688190649853</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.835786822366</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="X25" t="n">
-        <v>1380.271890268171</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="Y25" t="n">
-        <v>1153.929121957913</v>
+        <v>903.3774740723304</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>681.1487997661267</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="C26" t="n">
-        <v>681.1487997661267</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D26" t="n">
-        <v>681.1487997661267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E26" t="n">
-        <v>681.1487997661267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F26" t="n">
-        <v>681.1487997661267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G26" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H26" t="n">
         <v>36.91199246082674</v>
@@ -6227,49 +6229,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K26" t="n">
-        <v>357.6855680512415</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>814.4714747539724</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M26" t="n">
-        <v>814.4714747539724</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N26" t="n">
-        <v>1271.257381456703</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1482.877419510889</v>
+        <v>1673.653231852842</v>
       </c>
       <c r="V26" t="n">
-        <v>1482.877419510889</v>
+        <v>1673.653231852842</v>
       </c>
       <c r="W26" t="n">
-        <v>1086.486069811236</v>
+        <v>1277.261882153189</v>
       </c>
       <c r="X26" t="n">
-        <v>1086.486069811236</v>
+        <v>865.5418833209362</v>
       </c>
       <c r="Y26" t="n">
-        <v>681.1487997661267</v>
+        <v>460.2046132758265</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>475.2419029331439</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L27" t="n">
-        <v>932.0278096358747</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M27" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N27" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O27" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>876.528278233494</v>
+        <v>372.20132845514</v>
       </c>
       <c r="C28" t="n">
-        <v>704.55571511241</v>
+        <v>200.228765334056</v>
       </c>
       <c r="D28" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E28" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F28" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G28" t="n">
         <v>36.91199246082674</v>
@@ -6382,22 +6384,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K28" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L28" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N28" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O28" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P28" t="n">
         <v>1845.599623041337</v>
@@ -6406,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.125227786372</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U28" t="n">
-        <v>1432.125227786372</v>
+        <v>1306.126365859145</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.125227786372</v>
+        <v>1306.126365859145</v>
       </c>
       <c r="W28" t="n">
-        <v>1157.272823958885</v>
+        <v>1031.273962031658</v>
       </c>
       <c r="X28" t="n">
-        <v>1157.272823958885</v>
+        <v>788.7100654774636</v>
       </c>
       <c r="Y28" t="n">
-        <v>1066.69424694556</v>
+        <v>562.3672971672056</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>842.1034842639926</v>
+        <v>624.0226390050441</v>
       </c>
       <c r="C29" t="n">
-        <v>842.1034842639926</v>
+        <v>624.0226390050441</v>
       </c>
       <c r="D29" t="n">
-        <v>418.8108634489929</v>
+        <v>624.0226390050441</v>
       </c>
       <c r="E29" t="n">
-        <v>418.8108634489929</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F29" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G29" t="n">
         <v>36.91199246082674</v>
@@ -6464,49 +6466,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K29" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L29" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M29" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N29" t="n">
-        <v>493.6978991635576</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O29" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P29" t="n">
-        <v>1407.269712569019</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1261.951848555523</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.951848555523</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.951848555523</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K30" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L30" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="M30" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="N30" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="O30" t="n">
-        <v>932.0278096358747</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P30" t="n">
         <v>1388.813716338606</v>
@@ -6570,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6579,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.8037789907503</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C31" t="n">
-        <v>784.8037789907503</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D31" t="n">
         <v>784.8037789907503</v>
@@ -6622,49 +6624,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K31" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L31" t="n">
-        <v>303.8948463526241</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M31" t="n">
-        <v>695.080641322875</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.572152198911</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878674</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P31" t="n">
-        <v>1718.599492800575</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1813.751958739724</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1643.616911258859</v>
       </c>
       <c r="T31" t="n">
-        <v>1385.086614473545</v>
+        <v>1400.277563484759</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.902165973849</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1906985818782</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="W31" t="n">
-        <v>784.8037789907503</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="X31" t="n">
-        <v>784.8037789907503</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.8037789907503</v>
+        <v>1120.093114985063</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>411.2254335089546</v>
+        <v>728.9966549374858</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>302.0959249507859</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>302.0959249507859</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>302.0959249507859</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>302.0959249507859</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>302.0959249507859</v>
       </c>
       <c r="H32" t="n">
         <v>36.91199246082674</v>
@@ -6701,7 +6703,7 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K32" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L32" t="n">
         <v>493.6978991635576</v>
@@ -6716,34 +6718,34 @@
         <v>1407.269712569019</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q32" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R32" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U32" t="n">
-        <v>1624.67405208597</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V32" t="n">
-        <v>1624.67405208597</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="W32" t="n">
-        <v>1228.282702386317</v>
+        <v>728.9966549374858</v>
       </c>
       <c r="X32" t="n">
-        <v>816.5627035540642</v>
+        <v>728.9966549374858</v>
       </c>
       <c r="Y32" t="n">
-        <v>411.2254335089546</v>
+        <v>728.9966549374858</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J33" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L33" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M33" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="N33" t="n">
-        <v>475.2419029331439</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="O33" t="n">
-        <v>932.0278096358747</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="P33" t="n">
-        <v>1388.813716338606</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="Q33" t="n">
         <v>1845.599623041337</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.91199246082674</v>
+        <v>911.6745856373313</v>
       </c>
       <c r="C34" t="n">
-        <v>36.91199246082674</v>
+        <v>739.7020225162473</v>
       </c>
       <c r="D34" t="n">
-        <v>36.91199246082674</v>
+        <v>576.385249643018</v>
       </c>
       <c r="E34" t="n">
-        <v>36.91199246082674</v>
+        <v>410.1770437958716</v>
       </c>
       <c r="F34" t="n">
-        <v>36.91199246082674</v>
+        <v>238.315269570432</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91199246082674</v>
+        <v>72.05829986466412</v>
       </c>
       <c r="H34" t="n">
         <v>36.91199246082674</v>
@@ -6883,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>870.229311894705</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W34" t="n">
-        <v>595.376908067218</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X34" t="n">
-        <v>352.8130115130231</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4702432027651</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>887.1053432625264</v>
+        <v>656.5418450438035</v>
       </c>
       <c r="C35" t="n">
-        <v>460.2046132758265</v>
+        <v>656.5418450438035</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082674</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082674</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I35" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K35" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L35" t="n">
-        <v>1313.087264683184</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M35" t="n">
-        <v>1769.873171385915</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N35" t="n">
-        <v>1845.599623041337</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O35" t="n">
-        <v>1845.599623041337</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6971,16 +6973,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1712.290977599166</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W35" t="n">
-        <v>1712.290977599166</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X35" t="n">
-        <v>1712.290977599166</v>
+        <v>1076.390209335334</v>
       </c>
       <c r="Y35" t="n">
-        <v>1306.953707554057</v>
+        <v>1076.390209335334</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J36" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K36" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="L36" t="n">
         <v>475.2419029331439</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>932.0278096358747</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1388.813716338606</v>
       </c>
       <c r="N36" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="O36" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P36" t="n">
         <v>1845.599623041337</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.91199246082674</v>
+        <v>911.6745856373313</v>
       </c>
       <c r="C37" t="n">
-        <v>36.91199246082674</v>
+        <v>739.7020225162473</v>
       </c>
       <c r="D37" t="n">
-        <v>36.91199246082674</v>
+        <v>576.385249643018</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082674</v>
+        <v>410.1770437958716</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082674</v>
+        <v>238.315269570432</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>72.05829986466412</v>
       </c>
       <c r="H37" t="n">
         <v>36.91199246082674</v>
@@ -7093,22 +7095,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K37" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L37" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V37" t="n">
-        <v>870.229311894705</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W37" t="n">
-        <v>595.376908067218</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X37" t="n">
-        <v>352.8130115130231</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.4702432027651</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>207.101108063869</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C38" t="n">
-        <v>36.91199246082674</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D38" t="n">
-        <v>36.91199246082674</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E38" t="n">
         <v>36.91199246082674</v>
@@ -7172,28 +7174,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L38" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M38" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N38" t="n">
-        <v>1407.269712569019</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O38" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P38" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
@@ -7202,22 +7204,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T38" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U38" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V38" t="n">
-        <v>1008.829727808632</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W38" t="n">
-        <v>612.4383781089787</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X38" t="n">
-        <v>612.4383781089787</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y38" t="n">
-        <v>207.101108063869</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J39" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K39" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L39" t="n">
-        <v>765.3953884431487</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="M39" t="n">
-        <v>850.0084995511718</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="N39" t="n">
-        <v>1306.794406253903</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="O39" t="n">
-        <v>1763.580312956634</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.5395381564663</v>
+        <v>638.1781025620105</v>
       </c>
       <c r="C40" t="n">
-        <v>569.5669750353823</v>
+        <v>466.2055394409265</v>
       </c>
       <c r="D40" t="n">
-        <v>406.250202162153</v>
+        <v>302.8887665676972</v>
       </c>
       <c r="E40" t="n">
-        <v>240.0419963150065</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F40" t="n">
-        <v>68.18022208956694</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G40" t="n">
-        <v>68.18022208956694</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H40" t="n">
-        <v>68.18022208956694</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
         <v>36.91199246082674</v>
@@ -7333,22 +7335,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K40" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7357,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U40" t="n">
-        <v>1675.464575560472</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V40" t="n">
-        <v>1675.464575560472</v>
+        <v>1329.539243411821</v>
       </c>
       <c r="W40" t="n">
-        <v>1400.612171732985</v>
+        <v>1054.686839584334</v>
       </c>
       <c r="X40" t="n">
-        <v>1158.04827517879</v>
+        <v>1054.686839584334</v>
       </c>
       <c r="Y40" t="n">
-        <v>931.705506868532</v>
+        <v>828.3440712740762</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>774.0163046538721</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C41" t="n">
-        <v>774.0163046538721</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D41" t="n">
-        <v>774.0163046538721</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E41" t="n">
-        <v>774.0163046538721</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F41" t="n">
-        <v>774.0163046538721</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G41" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H41" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I41" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>358.3859952497895</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>815.1719019525203</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M41" t="n">
-        <v>1271.957808655251</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N41" t="n">
-        <v>1271.957808655251</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O41" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P41" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7439,22 +7441,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U41" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V41" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W41" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X41" t="n">
-        <v>1366.319142682382</v>
+        <v>1734.762208401799</v>
       </c>
       <c r="Y41" t="n">
-        <v>960.9818726372727</v>
+        <v>1734.762208401799</v>
       </c>
     </row>
     <row r="42">
@@ -7470,37 +7472,37 @@
         <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K42" t="n">
-        <v>475.2419029331441</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L42" t="n">
-        <v>475.2419029331441</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M42" t="n">
-        <v>475.2419029331441</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N42" t="n">
-        <v>475.2419029331441</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="O42" t="n">
         <v>932.027809635875</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.9545356544968</v>
+        <v>386.6237704712602</v>
       </c>
       <c r="C43" t="n">
-        <v>374.9819725334128</v>
+        <v>214.6512073501762</v>
       </c>
       <c r="D43" t="n">
-        <v>374.9819725334128</v>
+        <v>214.6512073501762</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7737666862663</v>
+        <v>214.6512073501762</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G43" t="n">
         <v>36.91199246082674</v>
@@ -7603,16 +7605,16 @@
         <v>1602.260275267237</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.879573058502</v>
+        <v>1320.548807875266</v>
       </c>
       <c r="W43" t="n">
-        <v>1206.027169231015</v>
+        <v>1045.696404047779</v>
       </c>
       <c r="X43" t="n">
-        <v>963.4632726768205</v>
+        <v>803.1325074935838</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.1205043665625</v>
+        <v>576.7897391833259</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>327.1941383983711</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C44" t="n">
-        <v>327.1941383983711</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D44" t="n">
-        <v>327.1941383983711</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E44" t="n">
-        <v>327.1941383983711</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F44" t="n">
-        <v>327.1941383983711</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G44" t="n">
-        <v>327.1941383983711</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K44" t="n">
-        <v>29.32575987240594</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L44" t="n">
-        <v>29.32575987240594</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M44" t="n">
-        <v>392.2320382934295</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N44" t="n">
-        <v>755.1383167144531</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O44" t="n">
-        <v>1118.044595135477</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1361.920699493437</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1140.995128538071</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>882.640219134483</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V44" t="n">
-        <v>525.1508042607325</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W44" t="n">
-        <v>327.1941383983711</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X44" t="n">
-        <v>327.1941383983711</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y44" t="n">
-        <v>327.1941383983711</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>306.0481015099879</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>188.5421980274926</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>134.0276935994687</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E45" t="n">
-        <v>29.32575987240594</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F45" t="n">
-        <v>29.32575987240594</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>29.32575987240594</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H45" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I45" t="n">
-        <v>36.77240283431778</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J45" t="n">
-        <v>308.4698921139089</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K45" t="n">
-        <v>308.4698921139089</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="L45" t="n">
-        <v>308.4698921139089</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="M45" t="n">
-        <v>308.4698921139089</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N45" t="n">
-        <v>308.4698921139089</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O45" t="n">
-        <v>658.4561266935468</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P45" t="n">
-        <v>1021.36240511457</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
-        <v>1384.268683535594</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R45" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1466.287993620297</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1324.408057917975</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>1139.639861837612</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>934.6667229768782</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>738.1453458100954</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>574.6679995767582</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>434.9751109300506</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1049.779256597973</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C46" t="n">
-        <v>940.5343192755588</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D46" t="n">
-        <v>777.2175464023295</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E46" t="n">
-        <v>611.009340555183</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F46" t="n">
-        <v>439.1475663297435</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G46" t="n">
-        <v>272.8905966239756</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H46" t="n">
-        <v>129.09432813213</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>86.81708809656396</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K46" t="n">
-        <v>86.81708809656396</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L46" t="n">
-        <v>86.81708809656396</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M46" t="n">
-        <v>449.7233665175875</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>812.6296449386111</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1168.057773618374</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>1458.656985540275</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>1466.287993620297</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U46" t="n">
-        <v>1466.287993620297</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V46" t="n">
-        <v>1466.287993620297</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.287993620297</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X46" t="n">
-        <v>1466.287993620297</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.945225310039</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
-        <v>480.8962504457604</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>182.1367435982027</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>457.4595408934817</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8292,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>457.6348575812177</v>
+        <v>100.3451612536477</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>484.5717954825564</v>
@@ -8316,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8383,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>384.8453003067499</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>135.694365494648</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>457.4595408934817</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>100.3451612536477</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8544,16 +8546,16 @@
         <v>482.7429339738759</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>464.5283265304016</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,10 +8613,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.0289299912522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>115.5109099618853</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>456.538457816883</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,10 +8774,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379012</v>
       </c>
       <c r="N12" t="n">
         <v>482.7429339738759</v>
@@ -8784,7 +8786,7 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8845,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8863,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8933,13 +8935,13 @@
         <v>499.7119481929572</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>362.0008377727922</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9003,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>190.8306636765791</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>484.4966862726622</v>
@@ -9021,7 +9023,7 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>464.5283265304018</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9082,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9167,22 +9169,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>382.3089311945598</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
         <v>483.9149924745637</v>
@@ -9252,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>484.1469440493127</v>
@@ -9319,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>111.5240152033034</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>180.6729970931265</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>108.5645695103309</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M23" t="n">
-        <v>86.17533235500369</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>190.7148107956829</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>541.7026457419896</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>359.7783135124</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
         <v>499.7119481929572</v>
@@ -9887,7 +9889,7 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -9896,7 +9898,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>190.7148107956829</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10048,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>24.61956276478495</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>38.31204243262292</v>
@@ -10121,7 +10123,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O29" t="n">
         <v>498.7908651163583</v>
@@ -10130,10 +10132,10 @@
         <v>498.9752675705655</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>465.2725720398024</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,10 +10205,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>465.9293750477954</v>
       </c>
       <c r="P30" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>484.1469440493127</v>
@@ -10270,10 +10272,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10285,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>129.0289299912522</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
@@ -10364,13 +10366,13 @@
         <v>498.7908651163583</v>
       </c>
       <c r="P32" t="n">
-        <v>361.589074527822</v>
+        <v>480.3328471358044</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10437,7 +10439,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>464.1005135391146</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O33" t="n">
         <v>484.5717954825564</v>
@@ -10446,7 +10448,7 @@
         <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>484.1469440493127</v>
+        <v>191.0626152513281</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M35" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>362.2965767485775</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>457.6348575812174</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>465.2725720398024</v>
       </c>
       <c r="M36" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10759,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844537</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>497.1645065551435</v>
@@ -10829,22 +10831,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>498.831168659766</v>
+        <v>114.6301304286942</v>
       </c>
       <c r="N38" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O38" t="n">
-        <v>361.4046720736148</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>382.4247840754558</v>
       </c>
       <c r="M39" t="n">
-        <v>108.5645695103311</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10981,10 +10983,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L40" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>360.4858157331555</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>114.8034077411299</v>
       </c>
       <c r="M41" t="n">
         <v>498.831168659766</v>
@@ -11072,16 +11074,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>465.1567191589064</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11151,7 +11153,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>458.4075134701066</v>
       </c>
       <c r="P42" t="n">
         <v>483.1707469651629</v>
@@ -11297,22 +11299,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>404.0032613045061</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N44" t="n">
-        <v>403.8516212395203</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O44" t="n">
-        <v>403.9629577610984</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>389.3363703807569</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11373,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>456.5786519614259</v>
       </c>
       <c r="O45" t="n">
-        <v>376.6933387925636</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>388.342839609903</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
-        <v>389.3190366940528</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M46" t="n">
-        <v>389.1474382965601</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>387.3208993806747</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.32765173450433</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22553,16 +22555,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>79.10663623009413</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>245.9963615051707</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22604,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>85.68155991495799</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,25 +22755,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>206.3343440542548</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4229533720049</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>293.9764452515382</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22844,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22948,16 +22950,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>57.92673814882359</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22993,7 +22995,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>85.59327297128277</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -23033,7 +23035,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>29.1976315463794</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>248.994981451988</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,19 +23184,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23227,10 +23229,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>154.8784802421335</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.67644152230633</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>294.9646708097511</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>141.72193191099</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23276,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23324,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>206.3343440542548</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>223.1183707497616</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>253.2911889557942</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771281</v>
+        <v>206.3343440542548</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>166.234417305411</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23798,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.9775886454681</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23890,22 +23892,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>93.7007366306624</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>18.10797441283958</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>101.0892434235743</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>153.0127488255939</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>101.4207812742428</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>247.6658524923786</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>309.3306541137071</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>11.22362071834056</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.2770323843603</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>49.70622904754958</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24446,7 +24448,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24455,10 +24457,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>57.39092729490443</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>85.54443303294201</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>30.77826088038665</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>134.4065493839634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,16 +24685,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>240.7733021612917</v>
       </c>
       <c r="F29" t="n">
-        <v>42.79305771420928</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,10 +24840,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>15.03903952110204</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>234.1008293939954</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -24917,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>52.06141604918633</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24932,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>32.35760157564596</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.60164079042603</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>107.5634614771281</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25154,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>240.469714880112</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25166,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>221.938961737264</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.60164079042603</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>107.5634614771281</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>254.144498239821</v>
+        <v>278.2847157029526</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25442,19 +25444,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25567,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>67.81533524467399</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>45.37718089952963</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.5539683450482</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25691,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>297.8737583507877</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25792,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>158.7757337514394</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25843,7 +25845,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>158.7274575314041</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>256.8632170357774</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25877,10 +25879,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>196.4503369989189</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>48.83219951612414</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.10034954068263</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451711.6143038939</v>
+        <v>451711.614303894</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508996.8428296424</v>
+        <v>451711.6143038939</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508996.8428296422</v>
+        <v>451711.614303894</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>451711.6143038939</v>
+        <v>451711.614303894</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370981.465995407</v>
+        <v>451711.6143038939</v>
       </c>
     </row>
   </sheetData>
@@ -26329,10 +26331,10 @@
         <v>112762.0272804593</v>
       </c>
       <c r="H2" t="n">
-        <v>127059.143630737</v>
+        <v>112762.0272804593</v>
       </c>
       <c r="I2" t="n">
-        <v>127059.143630737</v>
+        <v>112762.0272804593</v>
       </c>
       <c r="J2" t="n">
         <v>112762.0272804593</v>
@@ -26353,7 +26355,7 @@
         <v>112762.0272804593</v>
       </c>
       <c r="P2" t="n">
-        <v>92613.58145863922</v>
+        <v>112762.0272804593</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95911.36395069725</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>38650.95123624726</v>
       </c>
       <c r="D4" t="n">
-        <v>38650.95123624726</v>
+        <v>38650.95123624725</v>
       </c>
       <c r="E4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="F4" t="n">
-        <v>38650.95123624726</v>
+        <v>38650.95123624727</v>
       </c>
       <c r="G4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="H4" t="n">
-        <v>43571.76943387373</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="I4" t="n">
-        <v>43571.76943387373</v>
+        <v>38650.95123624725</v>
       </c>
       <c r="J4" t="n">
         <v>38650.95123624726</v>
@@ -26451,13 +26453,13 @@
         <v>38650.95123624726</v>
       </c>
       <c r="N4" t="n">
-        <v>38650.95123624726</v>
+        <v>38650.95123624725</v>
       </c>
       <c r="O4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="P4" t="n">
-        <v>31716.2074442254</v>
+        <v>38650.95123624726</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
         <v>28053.11427022832</v>
@@ -26509,7 +26511,7 @@
         <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>22287.57750302851</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142195.3588441368</v>
+        <v>-142195.3588441367</v>
       </c>
       <c r="C6" t="n">
+        <v>12430.36177398374</v>
+      </c>
+      <c r="D6" t="n">
         <v>12430.36177398372</v>
       </c>
-      <c r="D6" t="n">
-        <v>12430.36177398374</v>
-      </c>
       <c r="E6" t="n">
-        <v>46057.96177398372</v>
+        <v>46057.96177398373</v>
       </c>
       <c r="F6" t="n">
+        <v>46057.96177398369</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46057.96177398374</v>
+      </c>
+      <c r="H6" t="n">
         <v>46057.9617739837</v>
       </c>
-      <c r="G6" t="n">
-        <v>46057.96177398372</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24083.30030381985</v>
-      </c>
       <c r="I6" t="n">
-        <v>49668.72315943518</v>
+        <v>46057.96177398373</v>
       </c>
       <c r="J6" t="n">
-        <v>-49853.40217671356</v>
+        <v>-74664.55516877319</v>
       </c>
       <c r="K6" t="n">
         <v>46057.96177398373</v>
       </c>
       <c r="L6" t="n">
+        <v>46057.96177398368</v>
+      </c>
+      <c r="M6" t="n">
+        <v>46057.96177398368</v>
+      </c>
+      <c r="N6" t="n">
+        <v>46057.96177398375</v>
+      </c>
+      <c r="O6" t="n">
         <v>46057.9617739837</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>46057.9617739837</v>
-      </c>
-      <c r="N6" t="n">
-        <v>46057.9617739837</v>
-      </c>
-      <c r="O6" t="n">
-        <v>46057.96177398368</v>
-      </c>
-      <c r="P6" t="n">
-        <v>38609.79651138531</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
         <v>461.3999057603342</v>
@@ -26829,7 +26831,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M2" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>160.7937153846611</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>419.1474984608587</v>
+      </c>
+      <c r="M5" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>435.2356237478843</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>461.3999057603342</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>364.0963993311495</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>111.0748027298631</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>77.94592742031439</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>461.3999057603342</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>442.7574853255729</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.4093672264672</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>77.19886752926237</v>
+      </c>
+      <c r="M11" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O11" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255732</v>
       </c>
       <c r="N12" t="n">
         <v>461.3999057603342</v>
@@ -35504,7 +35506,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35583,10 +35585,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,13 +35655,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>324.7212149383462</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>461.3999057603342</v>
@@ -35741,7 +35743,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M17" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N17" t="n">
-        <v>419.1474984608589</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>359.9096973612265</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
         <v>461.3999057603342</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>461.3999057603342</v>
@@ -36039,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L20" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>158.2737632597931</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>85.46778899800287</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M23" t="n">
-        <v>48.74406945557187</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>168.3155769623496</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P24" t="n">
-        <v>519.9318045371609</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
         <v>461.3999057603342</v>
@@ -36607,7 +36609,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="O26" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36768,7 +36770,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O29" t="n">
         <v>461.3999057603342</v>
@@ -36850,10 +36852,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>442.7574853255732</v>
       </c>
       <c r="P30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>461.3999057603342</v>
@@ -36990,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
@@ -37005,10 +37007,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P32" t="n">
-        <v>324.0137127175907</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O33" t="n">
         <v>461.3999057603342</v>
@@ -37166,7 +37168,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623496</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N35" t="n">
-        <v>76.49136530850697</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255729</v>
       </c>
       <c r="M36" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37479,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>104.4093672264672</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>461.3999057603342</v>
@@ -37549,22 +37551,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>461.3999057603342</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="N38" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O38" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>359.9096973612262</v>
       </c>
       <c r="M39" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37701,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>324.7212149383462</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="M41" t="n">
         <v>461.3999057603342</v>
@@ -37792,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>435.2356237478844</v>
       </c>
       <c r="P42" t="n">
         <v>461.3999057603342</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N44" t="n">
-        <v>366.5719984050743</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7610085705256</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>435.2356237478842</v>
       </c>
       <c r="O45" t="n">
-        <v>353.5214490703414</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M46" t="n">
-        <v>366.5719984050743</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>366.5719984050743</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.708088969719378</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85682.95505316873</v>
+        <v>79736.12901851421</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20060381.09850433</v>
+        <v>20060381.09850432</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5223196.924858419</v>
+        <v>5223196.924858417</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -673,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>154.2993102812751</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>128.6552774352947</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>92.70937201392506</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -834,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>142.3520526580521</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>128.6552774352947</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.6404152779728</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>84.43156765810356</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.68962673108886</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,10 +1116,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>107.2335209428091</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>143.4324547506685</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1271,7 +1271,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721267</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>13.55521676392294</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>187.7202673968873</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>279.9952385426311</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>203.3389847103531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>127.6547728723949</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>199.5133519370713</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1618,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>31.44110913915369</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>6.198379512947216</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.77249900688962</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>31.79468515948129</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>76.44241985252278</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6279270300467</v>
+        <v>140.832020129751</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.4851730221162</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>115.5766707327649</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>111.5422858787866</v>
+        <v>138.2829379628355</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>155.2243943814009</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>190.4320285411033</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>254.6385226870829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>170.2269272766098</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>75.04451232910259</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>246.6043431343121</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>180.9438682923293</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>210.6025977404815</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.52918765859654</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,16 +3009,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>262.5320931650596</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>287.0090166054036</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>34.79484432979901</v>
+        <v>52.97298818271801</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>178.5899797267377</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>397.7302986442594</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>144.3470069838803</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>245.7498096342929</v>
       </c>
     </row>
     <row r="39">
@@ -3672,13 +3672,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>233.5171718185217</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>36.09085704695917</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>101.9542103579828</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>109.7290404931425</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>11.36742273174581</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>170.3837030547472</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>165.7685056510554</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>31.11034210880856</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>68.83205621563042</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.6054455360792</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1043.871003296574</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.871003296574</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="D2" t="n">
-        <v>1043.871003296574</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E2" t="n">
-        <v>617.8940634444317</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F2" t="n">
-        <v>192.7698816338319</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G2" t="n">
         <v>36.91199246082674</v>
@@ -4333,25 +4333,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>1769.873171385915</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1845.599623041337</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4366,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="W2" t="n">
-        <v>1449.208273341684</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="X2" t="n">
-        <v>1449.208273341684</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="Y2" t="n">
-        <v>1043.871003296574</v>
+        <v>1715.64479734912</v>
       </c>
     </row>
     <row r="3">
@@ -4397,10 +4397,10 @@
         <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H3" t="n">
         <v>36.91199246082674</v>
@@ -4412,25 +4412,25 @@
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
+        <v>316.0561247023297</v>
+      </c>
+      <c r="L3" t="n">
         <v>772.8420314050605</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1229.627938107791</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1686.413844810522</v>
       </c>
-      <c r="N3" t="n">
-        <v>1763.580312956634</v>
-      </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>713.2115053602647</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
@@ -4497,10 +4497,10 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O4" t="n">
         <v>1428.000280878674</v>
@@ -4512,28 +4512,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1411.43170977456</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="W4" t="n">
-        <v>1779.165748561582</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="X4" t="n">
-        <v>1536.601852007387</v>
+        <v>1129.720242382588</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>903.3774740723304</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1845.599623041337</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C5" t="n">
-        <v>1715.64479734912</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.35217653412</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E5" t="n">
-        <v>866.3752366819779</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
         <v>36.91199246082674</v>
@@ -4573,46 +4573,46 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>814.4714747539724</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.257381456703</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N5" t="n">
-        <v>1728.043288159434</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.599623041337</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>393.2225928484409</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
         <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="N6" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="O6" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P6" t="n">
         <v>1306.794406253903</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1306.794406253903</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1763.580312956634</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1763.580312956634</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956634</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.8126900093562</v>
+        <v>580.6268020276833</v>
       </c>
       <c r="C7" t="n">
-        <v>789.8401268882722</v>
+        <v>580.6268020276833</v>
       </c>
       <c r="D7" t="n">
-        <v>626.5233540150429</v>
+        <v>417.310029154454</v>
       </c>
       <c r="E7" t="n">
-        <v>460.3151481678964</v>
+        <v>251.1018233073076</v>
       </c>
       <c r="F7" t="n">
-        <v>288.4533739424568</v>
+        <v>251.1018233073076</v>
       </c>
       <c r="G7" t="n">
-        <v>122.1964042366889</v>
+        <v>251.1018233073076</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>107.305554815462</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
@@ -4731,19 +4731,19 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1445.036356416872</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P7" t="n">
-        <v>1735.635568338772</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4752,25 +4752,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1518.376561228814</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.665093836843</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>961.8126900093562</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="X7" t="n">
-        <v>961.8126900093562</v>
+        <v>580.6268020276833</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.8126900093562</v>
+        <v>580.6268020276833</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>463.8127224475267</v>
+        <v>920.225666342955</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082674</v>
+        <v>920.225666342955</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082674</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I8" t="n">
         <v>36.91199246082674</v>
@@ -4807,25 +4807,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>475.942330131692</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4834,22 +4834,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1737.282935220318</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1737.282935220318</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1737.282935220318</v>
       </c>
       <c r="W8" t="n">
-        <v>1700.718355616419</v>
+        <v>1737.282935220318</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.998356784166</v>
+        <v>1325.562936388065</v>
       </c>
       <c r="Y8" t="n">
-        <v>883.6610867390567</v>
+        <v>920.225666342955</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662885</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N9" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.1205518639796</v>
+        <v>787.6279394321493</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>615.6553763110653</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>452.338603437836</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G10" t="n">
         <v>280.4768292123964</v>
@@ -4962,16 +4962,16 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
         <v>1072.572152198911</v>
@@ -4986,28 +4986,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1784.868871583133</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1784.868871583133</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U10" t="n">
-        <v>1504.684423083438</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V10" t="n">
-        <v>1222.972955691466</v>
+        <v>1393.753108168501</v>
       </c>
       <c r="W10" t="n">
-        <v>948.1205518639796</v>
+        <v>1204.136676454473</v>
       </c>
       <c r="X10" t="n">
-        <v>948.1205518639796</v>
+        <v>1204.136676454473</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.1205518639796</v>
+        <v>977.793908144215</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1204.82568779444</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C11" t="n">
-        <v>777.9249578077402</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6323369927404</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E11" t="n">
-        <v>71.80886371735554</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
         <v>36.91199246082674</v>
@@ -5047,46 +5047,46 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>932.7282368344229</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1389.514143537154</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O11" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1624.67405208597</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="V11" t="n">
-        <v>1624.67405208597</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="W11" t="n">
-        <v>1624.67405208597</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="X11" t="n">
-        <v>1624.67405208597</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.67405208597</v>
+        <v>1314.913844110269</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>36.9119924608267</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L12" t="n">
-        <v>36.9119924608267</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M12" t="n">
-        <v>475.2419029331441</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N12" t="n">
-        <v>932.027809635875</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5150,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5159,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.093114985063</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="C13" t="n">
-        <v>948.1205518639796</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="D13" t="n">
-        <v>784.8037789907503</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="E13" t="n">
-        <v>618.5955731436038</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="F13" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G13" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
         <v>36.91199246082674</v>
@@ -5208,43 +5208,43 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.806038155494</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N13" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W13" t="n">
-        <v>1779.165748561582</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X13" t="n">
-        <v>1536.601852007387</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1310.259083697129</v>
+        <v>475.9094456810614</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C14" t="n">
-        <v>1644.070984721063</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D14" t="n">
-        <v>1220.778363906063</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E14" t="n">
-        <v>794.8014240539205</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F14" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G14" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M14" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N14" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.957808655251</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P14" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5305,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1709.473632814322</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>486.529580009787</v>
       </c>
       <c r="D15" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082694</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662885</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.093114985063</v>
+        <v>381.2917257990516</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1205518639796</v>
+        <v>381.2917257990516</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8037789907503</v>
+        <v>381.2917257990516</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>381.2917257990516</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>209.429951573612</v>
       </c>
       <c r="G16" t="n">
-        <v>280.4768292123964</v>
+        <v>43.17298186784413</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
         <v>36.91199246082674</v>
@@ -5448,13 +5448,13 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N16" t="n">
-        <v>1444.297549031529</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O16" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5466,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.165748561582</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.601852007387</v>
+        <v>797.8004628213752</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.259083697129</v>
+        <v>571.4576945111172</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1845.599623041337</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C17" t="n">
-        <v>1845.599623041337</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.220555060086</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E17" t="n">
-        <v>1164.243615207943</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F17" t="n">
-        <v>739.1194333973433</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G17" t="n">
         <v>334.7803709867919</v>
@@ -5524,16 +5524,16 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N17" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O17" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P17" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
         <v>1728.043288159434</v>
@@ -5542,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1782.193058387913</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1782.193058387913</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1523.838148984325</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1166.348734110575</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1166.348734110575</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>754.628735278322</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>754.628735278322</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C18" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
         <v>1229.627938107791</v>
@@ -5606,16 +5606,16 @@
         <v>1229.627938107791</v>
       </c>
       <c r="N18" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O18" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P18" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5624,7 +5624,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U18" t="n">
         <v>1437.627243819906</v>
@@ -5633,13 +5633,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>596.152359287123</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="C19" t="n">
-        <v>424.179796166039</v>
+        <v>443.7936020856257</v>
       </c>
       <c r="D19" t="n">
-        <v>424.179796166039</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="E19" t="n">
-        <v>424.179796166039</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F19" t="n">
-        <v>346.9652306584402</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G19" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I19" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
         <v>822.0807715636367</v>
@@ -5697,28 +5697,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T19" t="n">
-        <v>1675.464575560472</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U19" t="n">
-        <v>1395.280127060776</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V19" t="n">
-        <v>1113.568659668805</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W19" t="n">
-        <v>838.7162558413179</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X19" t="n">
-        <v>596.152359287123</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.152359287123</v>
+        <v>475.9094456810614</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1488.110208167586</v>
+        <v>1029.359909050154</v>
       </c>
       <c r="C20" t="n">
-        <v>1488.110208167586</v>
+        <v>602.4591790634538</v>
       </c>
       <c r="D20" t="n">
-        <v>1488.110208167586</v>
+        <v>179.1665582484541</v>
       </c>
       <c r="E20" t="n">
-        <v>1164.243615207943</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F20" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G20" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
         <v>36.91199246082674</v>
@@ -5767,13 +5767,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="O20" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P20" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1769.873171385915</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5788,16 +5788,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>1488.110208167586</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X20" t="n">
-        <v>1488.110208167586</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="Y20" t="n">
-        <v>1488.110208167586</v>
+        <v>1449.208273341684</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>1222.18129514588</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M21" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N21" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O21" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P21" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.8845555819107</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C22" t="n">
-        <v>36.91199246082674</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D22" t="n">
-        <v>36.91199246082674</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E22" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F22" t="n">
         <v>36.91199246082674</v>
@@ -5910,52 +5910,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T22" t="n">
-        <v>1704.705508877583</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.521060377887</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V22" t="n">
-        <v>1142.809592985916</v>
+        <v>1401.632449377537</v>
       </c>
       <c r="W22" t="n">
-        <v>867.9571891584293</v>
+        <v>1126.78004555005</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3932926042344</v>
+        <v>1126.78004555005</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.0505242939764</v>
+        <v>900.4372772397917</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.751258749807</v>
+        <v>603.4924577635221</v>
       </c>
       <c r="C23" t="n">
-        <v>998.8505287631069</v>
+        <v>176.5917277768222</v>
       </c>
       <c r="D23" t="n">
-        <v>575.5579079481072</v>
+        <v>176.5917277768222</v>
       </c>
       <c r="E23" t="n">
-        <v>149.5809680959647</v>
+        <v>176.5917277768222</v>
       </c>
       <c r="F23" t="n">
         <v>36.91199246082674</v>
@@ -5995,22 +5995,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M23" t="n">
-        <v>1769.873171385915</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N23" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O23" t="n">
-        <v>1845.599623041337</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P23" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
@@ -6019,22 +6019,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V23" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W23" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X23" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y23" t="n">
-        <v>1845.599623041337</v>
+        <v>603.4924577635221</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J24" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>475.2419029331439</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L24" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M24" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N24" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O24" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P24" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q24" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.2115053602647</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="C25" t="n">
-        <v>541.2389422391807</v>
+        <v>941.5960965477209</v>
       </c>
       <c r="D25" t="n">
-        <v>541.2389422391807</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E25" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F25" t="n">
-        <v>203.1689621665946</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
@@ -6174,25 +6174,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T25" t="n">
-        <v>1602.260275267237</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U25" t="n">
-        <v>1322.075826767541</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.075826767541</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="W25" t="n">
-        <v>1322.075826767541</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.720242382588</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.3774740723304</v>
+        <v>1113.568659668805</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>460.2046132758265</v>
+        <v>1588.388994064485</v>
       </c>
       <c r="C26" t="n">
-        <v>460.2046132758265</v>
+        <v>1588.388994064485</v>
       </c>
       <c r="D26" t="n">
-        <v>36.91199246082674</v>
+        <v>1165.096373249486</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H26" t="n">
         <v>36.91199246082674</v>
@@ -6226,28 +6226,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M26" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N26" t="n">
-        <v>1407.269712569019</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O26" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P26" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
@@ -6259,19 +6259,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1673.653231852842</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V26" t="n">
-        <v>1673.653231852842</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W26" t="n">
-        <v>1277.261882153189</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X26" t="n">
-        <v>865.5418833209362</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y26" t="n">
-        <v>460.2046132758265</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023296</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K27" t="n">
-        <v>316.0561247023296</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L27" t="n">
-        <v>316.0561247023296</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M27" t="n">
-        <v>772.8420314050604</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N27" t="n">
-        <v>1229.627938107791</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O27" t="n">
-        <v>1306.794406253903</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P27" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.20132845514</v>
+        <v>857.7769087600204</v>
       </c>
       <c r="C28" t="n">
-        <v>200.228765334056</v>
+        <v>685.8043456389364</v>
       </c>
       <c r="D28" t="n">
-        <v>36.91199246082674</v>
+        <v>522.4875727657071</v>
       </c>
       <c r="E28" t="n">
-        <v>36.91199246082674</v>
+        <v>356.2793669185606</v>
       </c>
       <c r="F28" t="n">
-        <v>36.91199246082674</v>
+        <v>356.2793669185606</v>
       </c>
       <c r="G28" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
@@ -6414,22 +6414,22 @@
         <v>1798.56100972851</v>
       </c>
       <c r="T28" t="n">
-        <v>1555.22166195441</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U28" t="n">
-        <v>1306.126365859145</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V28" t="n">
-        <v>1306.126365859145</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="W28" t="n">
-        <v>1031.273962031658</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="X28" t="n">
-        <v>788.7100654774636</v>
+        <v>1274.285645782344</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.3672971672056</v>
+        <v>1047.942877472086</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>624.0226390050441</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="C29" t="n">
-        <v>624.0226390050441</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="D29" t="n">
-        <v>624.0226390050441</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="E29" t="n">
-        <v>441.2510548713781</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F29" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G29" t="n">
         <v>36.91199246082674</v>
@@ -6463,52 +6463,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N29" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O29" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W29" t="n">
-        <v>1449.208273341684</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X29" t="n">
-        <v>1449.208273341684</v>
+        <v>674.7660709789836</v>
       </c>
       <c r="Y29" t="n">
-        <v>1043.871003296574</v>
+        <v>462.0361742714265</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C30" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H30" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J30" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L30" t="n">
-        <v>950.4838058662884</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M30" t="n">
-        <v>950.4838058662884</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N30" t="n">
-        <v>950.4838058662884</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O30" t="n">
         <v>1388.813716338606</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.093114985063</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C31" t="n">
-        <v>948.1205518639796</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D31" t="n">
-        <v>784.8037789907503</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E31" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F31" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G31" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>263.4395936666639</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L31" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M31" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O31" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P31" t="n">
-        <v>1742.234349487134</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1813.751958739724</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1643.616911258859</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1400.277563484759</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U31" t="n">
-        <v>1120.093114985063</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V31" t="n">
-        <v>1120.093114985063</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W31" t="n">
-        <v>1120.093114985063</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X31" t="n">
-        <v>1120.093114985063</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y31" t="n">
-        <v>1120.093114985063</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>728.9966549374858</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="C32" t="n">
-        <v>302.0959249507859</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D32" t="n">
-        <v>302.0959249507859</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E32" t="n">
-        <v>302.0959249507859</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F32" t="n">
-        <v>302.0959249507859</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G32" t="n">
-        <v>302.0959249507859</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I32" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L32" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M32" t="n">
-        <v>493.6978991635576</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N32" t="n">
-        <v>950.4838058662885</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O32" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P32" t="n">
         <v>1845.599623041337</v>
@@ -6736,16 +6736,16 @@
         <v>1482.877419510889</v>
       </c>
       <c r="V32" t="n">
-        <v>1125.388004637139</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W32" t="n">
-        <v>728.9966549374858</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X32" t="n">
-        <v>728.9966549374858</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.9966549374858</v>
+        <v>796.5779722300206</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J33" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L33" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M33" t="n">
-        <v>308.6094817404178</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="N33" t="n">
-        <v>765.3953884431487</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O33" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P33" t="n">
-        <v>1678.967201848611</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>911.6745856373313</v>
+        <v>528.3073735231906</v>
       </c>
       <c r="C34" t="n">
-        <v>739.7020225162473</v>
+        <v>528.3073735231906</v>
       </c>
       <c r="D34" t="n">
-        <v>576.385249643018</v>
+        <v>528.3073735231906</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1770437958716</v>
+        <v>528.3073735231906</v>
       </c>
       <c r="F34" t="n">
-        <v>238.315269570432</v>
+        <v>356.445599297751</v>
       </c>
       <c r="G34" t="n">
-        <v>72.05829986466412</v>
+        <v>190.1886295919831</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L34" t="n">
         <v>430.8949765933859</v>
@@ -6882,28 +6882,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W34" t="n">
-        <v>1570.74721921385</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X34" t="n">
-        <v>1328.183322659655</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="Y34" t="n">
-        <v>1101.840554349397</v>
+        <v>718.4733422352563</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>656.5418450438035</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C35" t="n">
-        <v>656.5418450438035</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D35" t="n">
-        <v>476.1479261279069</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E35" t="n">
-        <v>476.1479261279069</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F35" t="n">
-        <v>476.1479261279069</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G35" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H35" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L35" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M35" t="n">
-        <v>493.6978991635576</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N35" t="n">
-        <v>493.6978991635576</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O35" t="n">
-        <v>950.4838058662885</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P35" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V35" t="n">
-        <v>1488.110208167586</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W35" t="n">
-        <v>1488.110208167586</v>
+        <v>865.5604988558696</v>
       </c>
       <c r="X35" t="n">
-        <v>1076.390209335334</v>
+        <v>865.5604988558696</v>
       </c>
       <c r="Y35" t="n">
-        <v>1076.390209335334</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J36" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K36" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>475.2419029331439</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M36" t="n">
-        <v>932.0278096358747</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N36" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O36" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P36" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>911.6745856373313</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C37" t="n">
-        <v>739.7020225162473</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D37" t="n">
-        <v>576.385249643018</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1770437958716</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F37" t="n">
-        <v>238.315269570432</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G37" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H37" t="n">
         <v>36.91199246082674</v>
@@ -7107,13 +7107,13 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N37" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7125,22 +7125,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W37" t="n">
-        <v>1570.74721921385</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X37" t="n">
-        <v>1328.183322659655</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y37" t="n">
-        <v>1101.840554349397</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>608.6939898724443</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
         <v>36.91199246082674</v>
@@ -7180,46 +7180,46 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L38" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M38" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N38" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O38" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P38" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q38" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W38" t="n">
-        <v>1845.599623041337</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="X38" t="n">
-        <v>1433.879624209084</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="Y38" t="n">
-        <v>1028.542354163974</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>393.2225928484407</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O39" t="n">
-        <v>850.0084995511716</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P39" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.1781025620105</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C40" t="n">
-        <v>466.2055394409265</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D40" t="n">
-        <v>302.8887665676972</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E40" t="n">
-        <v>136.6805607205508</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F40" t="n">
-        <v>136.6805607205508</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H40" t="n">
         <v>136.6805607205508</v>
@@ -7335,49 +7335,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U40" t="n">
-        <v>1565.415174541641</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V40" t="n">
-        <v>1329.539243411821</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W40" t="n">
-        <v>1054.686839584334</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X40" t="n">
-        <v>1054.686839584334</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y40" t="n">
-        <v>828.3440712740762</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1314.913844110269</v>
+        <v>842.1034842639926</v>
       </c>
       <c r="C41" t="n">
-        <v>888.013114123569</v>
+        <v>842.1034842639926</v>
       </c>
       <c r="D41" t="n">
-        <v>888.013114123569</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E41" t="n">
-        <v>462.0361742714265</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H41" t="n">
         <v>36.91199246082674</v>
@@ -7417,16 +7417,16 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>932.027809635875</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>1388.813716338606</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N41" t="n">
-        <v>1388.813716338606</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O41" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P41" t="n">
         <v>1845.599623041337</v>
@@ -7438,25 +7438,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X41" t="n">
-        <v>1734.762208401799</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y41" t="n">
-        <v>1734.762208401799</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L42" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="N42" t="n">
-        <v>501.1445421254694</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O42" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>386.6237704712602</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="C43" t="n">
-        <v>214.6512073501762</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="D43" t="n">
-        <v>214.6512073501762</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="E43" t="n">
-        <v>214.6512073501762</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="F43" t="n">
-        <v>203.1689621665946</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H43" t="n">
         <v>36.91199246082674</v>
@@ -7569,25 +7569,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L43" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M43" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N43" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O43" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P43" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7596,25 +7596,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U43" t="n">
-        <v>1602.260275267237</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V43" t="n">
-        <v>1320.548807875266</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W43" t="n">
-        <v>1045.696404047779</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X43" t="n">
-        <v>803.1325074935838</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.7897391833259</v>
+        <v>180.7082609526723</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>608.6939898724443</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C44" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D44" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E44" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F44" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H44" t="n">
         <v>36.91199246082674</v>
@@ -7648,28 +7648,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L44" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M44" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N44" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O44" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P44" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
         <v>1845.599623041337</v>
@@ -7678,22 +7678,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X44" t="n">
-        <v>1433.879624209084</v>
+        <v>1212.954053253717</v>
       </c>
       <c r="Y44" t="n">
-        <v>1028.542354163974</v>
+        <v>1181.529465265022</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>501.1445421254695</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L45" t="n">
-        <v>501.1445421254695</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
         <v>1845.599623041337</v>
@@ -7757,7 +7757,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
         <v>1437.627243819906</v>
@@ -7766,13 +7766,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4393219715645</v>
+        <v>597.6233814915253</v>
       </c>
       <c r="C46" t="n">
-        <v>36.91199246082674</v>
+        <v>597.6233814915253</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91199246082674</v>
+        <v>597.6233814915253</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082674</v>
+        <v>431.4151756443788</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>431.4151756443788</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>265.1582059386109</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>121.3619374467653</v>
       </c>
       <c r="I46" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
         <v>695.080641322875</v>
@@ -7830,28 +7830,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T46" t="n">
-        <v>1602.260275267237</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.075826767541</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V46" t="n">
-        <v>1040.36435937557</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W46" t="n">
-        <v>765.5119555480831</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="X46" t="n">
-        <v>522.9480589938881</v>
+        <v>823.9661498017832</v>
       </c>
       <c r="Y46" t="n">
-        <v>296.6052906836302</v>
+        <v>597.6233814915253</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
@@ -8069,10 +8069,10 @@
         <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>99.28895563385618</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068834</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>401.2507195050165</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8221,7 +8221,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>457.4595408934817</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
         <v>498.831168659766</v>
@@ -8230,7 +8230,7 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>100.3451612536477</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8388,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>299.4534711317698</v>
       </c>
       <c r="Q7" t="n">
-        <v>135.694365494648</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>112.9634683240717</v>
       </c>
       <c r="L8" t="n">
-        <v>457.4595408934817</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>464.5283265304016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8695,25 +8695,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>115.5109099618853</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>465.8542658379012</v>
+        <v>101.0427079326423</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>483.1707469651629</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
@@ -8938,16 +8938,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>362.0008377727922</v>
+        <v>456.4271212953049</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>381.2527255747682</v>
       </c>
       <c r="O15" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>464.5283265304018</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9096,16 +9096,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P16" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>456.4271212953049</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>457.4303624918456</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>99.28895563385618</v>
+        <v>182.1367435982026</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9415,16 +9415,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>111.5240152033034</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9488,7 +9488,7 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
-        <v>108.5645695103309</v>
+        <v>183.8904958969889</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>363.7289145841511</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9573,13 +9573,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>190.7148107956829</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326423</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,7 +9807,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>480.1484446815972</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726622</v>
+        <v>458.3324042602124</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>101.1178171425367</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
@@ -10123,10 +10123,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163583</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P29" t="n">
         <v>498.9752675705655</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>483.7991395936675</v>
@@ -10199,13 +10199,13 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>183.8904958969889</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>465.9293750477954</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>361.8093214193388</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>129.0289299912522</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>480.3328471358044</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326421</v>
       </c>
       <c r="N33" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.0626152513281</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>361.8093214193388</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
         <v>499.7119481929572</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>362.2965767485775</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P36" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10755,16 +10755,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M38" t="n">
-        <v>114.6301304286942</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>382.4247840754558</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982028</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>483.1707469651629</v>
@@ -10925,7 +10925,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>114.8034077411299</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11077,7 +11077,7 @@
         <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>114.0667271187383</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11138,10 +11138,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,10 +11150,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385612</v>
       </c>
       <c r="O42" t="n">
-        <v>458.4075134701066</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P42" t="n">
         <v>483.1707469651629</v>
@@ -11162,7 +11162,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>233.5263615801855</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>480.0371081600191</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>456.5786519614259</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P45" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>100.692965709293</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -22552,7 +22552,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>245.9963615051707</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22606,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>225.2592432897183</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>135.0305513566467</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>293.9764452515382</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>372.6434820666857</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>57.92673814882359</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>29.08125584603792</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23041,7 +23041,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>111.4827943030041</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23083,7 +23083,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>248.994981451988</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>154.8784802421335</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>84.38361239232478</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>141.72193191099</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>52.43237559919871</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.48838361079024</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>223.1183707497616</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23554,10 +23554,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>322.4734115858593</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.1599262939799</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>166.234417305411</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>40.55112217870138</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,25 +23892,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4581523303918</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>93.7007366306624</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>101.0892434235743</v>
+        <v>280.88515032387</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24028,10 +24028,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>101.4207812742428</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>163.3176819852865</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>309.3306541137071</v>
+        <v>282.5900020296583</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -24259,13 +24259,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>6.45921076309611</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>49.70622904754958</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>161.0113579615318</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24499,19 +24499,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>85.54443303294201</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>89.54988767960759</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>30.77826088038665</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>240.7733021612917</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>190.681299604177</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.03903952110204</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>32.35760157564596</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>120.5937822385266</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.5634614771281</v>
+        <v>89.38531762420914</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>240.469714880112</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>3.553598700399107</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>278.2847157029526</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -25450,16 +25450,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>155.5340877103656</v>
       </c>
     </row>
     <row r="39">
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>45.37718089952963</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>187.9884835801962</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>317.1054842488668</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>297.8737583507877</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,13 +25797,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7757337514394</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>53.69563757240815</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>256.8632170357774</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,10 +25879,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25918,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>370.17355523585</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>101.4207812742427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>15.16543704104758</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>451711.6143038939</v>
+        <v>451711.6143038938</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>451711.6143038939</v>
+        <v>451711.614303894</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>451711.614303894</v>
+        <v>451711.6143038939</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>451711.614303894</v>
+        <v>451711.6143038939</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>451711.6143038939</v>
+        <v>451711.6143038938</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>451711.614303894</v>
+        <v>451711.6143038939</v>
       </c>
     </row>
     <row r="16">
@@ -26423,13 +26423,13 @@
         <v>38650.95123624726</v>
       </c>
       <c r="D4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="E4" t="n">
         <v>38650.95123624726</v>
       </c>
       <c r="F4" t="n">
-        <v>38650.95123624727</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="G4" t="n">
         <v>38650.95123624726</v>
@@ -26438,7 +26438,7 @@
         <v>38650.95123624726</v>
       </c>
       <c r="I4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="J4" t="n">
         <v>38650.95123624726</v>
@@ -26453,7 +26453,7 @@
         <v>38650.95123624726</v>
       </c>
       <c r="N4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="O4" t="n">
         <v>38650.95123624726</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142195.3588441367</v>
+        <v>-142899.7186656283</v>
       </c>
       <c r="C6" t="n">
-        <v>12430.36177398374</v>
+        <v>11726.00195249219</v>
       </c>
       <c r="D6" t="n">
-        <v>12430.36177398372</v>
+        <v>11726.00195249222</v>
       </c>
       <c r="E6" t="n">
-        <v>46057.96177398373</v>
+        <v>45353.60195249221</v>
       </c>
       <c r="F6" t="n">
-        <v>46057.96177398369</v>
+        <v>45353.60195249216</v>
       </c>
       <c r="G6" t="n">
-        <v>46057.96177398374</v>
+        <v>45353.60195249219</v>
       </c>
       <c r="H6" t="n">
-        <v>46057.9617739837</v>
+        <v>45353.60195249219</v>
       </c>
       <c r="I6" t="n">
-        <v>46057.96177398373</v>
+        <v>45353.60195249219</v>
       </c>
       <c r="J6" t="n">
-        <v>-74664.55516877319</v>
+        <v>-75368.9149902647</v>
       </c>
       <c r="K6" t="n">
-        <v>46057.96177398373</v>
+        <v>45353.60195249219</v>
       </c>
       <c r="L6" t="n">
-        <v>46057.96177398368</v>
+        <v>45353.60195249221</v>
       </c>
       <c r="M6" t="n">
-        <v>46057.96177398368</v>
+        <v>45353.60195249221</v>
       </c>
       <c r="N6" t="n">
-        <v>46057.96177398375</v>
+        <v>45353.60195249219</v>
       </c>
       <c r="O6" t="n">
-        <v>46057.9617739837</v>
+        <v>45353.60195249222</v>
       </c>
       <c r="P6" t="n">
-        <v>46057.9617739837</v>
+        <v>45353.60195249225</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P2" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L2" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>76.49136530850697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>461.3999057603342</v>
@@ -34789,10 +34789,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>378.6752796135307</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1474984608587</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
         <v>461.3999057603342</v>
@@ -34950,7 +34950,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>77.94592742031439</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35108,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.0748027298631</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>77.19886752926237</v>
       </c>
       <c r="L8" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N9" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>442.7574853255729</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35415,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P11" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N11" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M12" t="n">
-        <v>442.7574853255732</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>461.3999057603342</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35585,10 +35585,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35658,16 +35658,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>324.7212149383462</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612265</v>
       </c>
       <c r="O15" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P15" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35816,16 +35816,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P17" t="n">
-        <v>419.8550006816143</v>
-      </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>77.9459274203145</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36135,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>76.49136530850697</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36208,7 +36208,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
-        <v>85.46778899800287</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>341.8101546884499</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36293,13 +36293,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P24" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36527,7 +36527,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O25" t="n">
         <v>359.0183117977405</v>
@@ -36536,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P26" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L26" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O26" t="n">
-        <v>442.7574853255731</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
+        <v>435.2356237478844</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N27" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O27" t="n">
-        <v>77.9459274203145</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36773,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36843,10 +36843,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P29" t="n">
         <v>461.3999057603342</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>461.3999057603342</v>
@@ -36919,13 +36919,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2720417115361</v>
+        <v>339.8905615236376</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
@@ -37007,10 +37007,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.4093672264672</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L32" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="N33" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>358.2720417115361</v>
+        <v>339.8905615236376</v>
       </c>
       <c r="M34" t="n">
         <v>395.137166636617</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L35" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P36" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,16 +37475,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M38" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>461.3999057603342</v>
@@ -37645,7 +37645,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>77.94592742031445</v>
+      </c>
+      <c r="O42" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>435.2356237478844</v>
       </c>
       <c r="P42" t="n">
         <v>461.3999057603342</v>
@@ -37882,7 +37882,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>211.6076016844843</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N45" t="n">
-        <v>435.2356237478842</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
